--- a/TestData/Labour.xlsx
+++ b/TestData/Labour.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12880" windowHeight="2390" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12880" windowHeight="2390" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
   <si>
     <t>Url</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>admin@123</t>
-  </si>
-  <si>
-    <t>4ccNbLJE6P</t>
   </si>
   <si>
     <t>clientportal@tcg.com</t>
@@ -726,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -757,12 +754,12 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="admin@123"/>
+    <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B1" r:id="rId2"/>
     <hyperlink ref="B2" r:id="rId3" display="mailto:reviewer.reviewer@gmail.com"/>
   </hyperlinks>
@@ -865,7 +862,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -913,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -976,7 +973,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -989,55 +986,55 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
         <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
         <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
         <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>3059427890</v>
@@ -1045,7 +1042,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1053,7 +1050,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1061,15 +1058,15 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15">
         <v>3728476789</v>
@@ -1077,15 +1074,15 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
         <v>46</v>
-      </c>
-      <c r="B16" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="5">
         <v>3535</v>
@@ -1096,7 +1093,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -1104,7 +1101,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -1112,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -1120,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -1128,7 +1125,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1173,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1198,7 +1195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -1220,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1228,7 +1225,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Labour.xlsx
+++ b/TestData/Labour.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Labour Angular\LabourMergeProject\LabourMergeProject\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12880" windowHeight="2390" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13530" windowHeight="2510" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,8 +16,10 @@
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:M6"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
   <si>
     <t>Url</t>
   </si>
@@ -197,6 +194,9 @@
   </si>
   <si>
     <t xml:space="preserve"> admin@123</t>
+  </si>
+  <si>
+    <t>SHRI@GN.COM</t>
   </si>
 </sst>
 </file>
@@ -654,6 +654,48 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
@@ -723,7 +765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -771,7 +813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -839,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1196,7 +1238,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
